--- a/data/inventory/lci-euro0.xlsx
+++ b/data/inventory/lci-euro0.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\OneDrive - NTNU\Attachments\PSI\jupyter\Adapt LCI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nistad_a\Desktop\scrappage-bev\data\inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{E27612A6-D085-4CB0-9CAF-A5983CF878BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{58D4DF9D-808B-4237-833A-FBB1EE92DAA3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCAB3D74-0748-46E1-A4C3-5235BB6E2ACA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="euro 0" sheetId="1" r:id="rId1"/>
@@ -261,8 +260,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,7 +348,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -660,19 +659,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0BD83F-E1C0-4D61-A605-1FF09443442A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H810"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="J453" sqref="J453"/>
+    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
+      <selection activeCell="M425" sqref="M425"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="78.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
@@ -680,7 +679,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -688,7 +687,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
@@ -696,7 +695,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -704,7 +703,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -712,7 +711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -721,7 +720,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -729,12 +728,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -757,7 +756,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -774,7 +773,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -791,12 +790,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>41</v>
       </c>
       <c r="B13">
-        <v>0.23547218322753899</v>
+        <v>0.22727162170410201</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
@@ -808,7 +807,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -825,7 +824,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -842,7 +841,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -859,7 +858,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -876,12 +875,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>36</v>
       </c>
       <c r="B18">
-        <v>6.9938546419143698E-4</v>
+        <v>6.6054916381835902E-4</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
@@ -893,12 +892,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>35</v>
       </c>
       <c r="B19">
-        <v>1.15981660783291E-4</v>
+        <v>1.0894067585468299E-4</v>
       </c>
       <c r="D19" t="s">
         <v>2</v>
@@ -910,12 +909,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>34</v>
       </c>
       <c r="B20">
-        <v>1.185123459436E-6</v>
+        <v>1.1438503861427299E-6</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
@@ -927,7 +926,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -947,7 +946,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -967,7 +966,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -987,12 +986,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>62</v>
       </c>
       <c r="B24">
-        <v>7.4070220947265591E-2</v>
+        <v>7.1490646362304705E-2</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -1007,7 +1006,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1027,7 +1026,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1047,7 +1046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1067,7 +1066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1087,7 +1086,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1107,7 +1106,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1127,7 +1126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -1147,7 +1146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1167,7 +1166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1187,7 +1186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1207,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15.75">
       <c r="A36" s="1" t="s">
         <v>54</v>
       </c>
@@ -1215,7 +1214,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -1223,7 +1222,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -1231,7 +1230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1239,7 +1238,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1247,12 +1246,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15.75">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1275,7 +1274,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1292,7 +1291,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1309,12 +1308,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>41</v>
       </c>
       <c r="B45">
-        <v>9.8760406494140598E-2</v>
+        <v>9.5320976257324205E-2</v>
       </c>
       <c r="D45" t="s">
         <v>2</v>
@@ -1326,7 +1325,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -1343,7 +1342,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -1360,7 +1359,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -1377,7 +1376,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -1394,12 +1393,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>36</v>
       </c>
       <c r="B50">
-        <v>6.9938546419143698E-4</v>
+        <v>6.6054916381835902E-4</v>
       </c>
       <c r="D50" t="s">
         <v>2</v>
@@ -1411,12 +1410,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>35</v>
       </c>
       <c r="B51">
-        <v>1.15981660783291E-4</v>
+        <v>1.0894067585468299E-4</v>
       </c>
       <c r="D51" t="s">
         <v>2</v>
@@ -1428,12 +1427,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>34</v>
       </c>
       <c r="B52">
-        <v>4.9705780111253309E-7</v>
+        <v>4.7974722110666307E-7</v>
       </c>
       <c r="D52" t="s">
         <v>2</v>
@@ -1445,7 +1444,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -1465,7 +1464,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -1485,7 +1484,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -1505,12 +1504,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>62</v>
       </c>
       <c r="B56">
-        <v>3.10661106109619E-2</v>
+        <v>2.99842014312744E-2</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
@@ -1525,7 +1524,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -1545,7 +1544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -1565,7 +1564,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -1585,7 +1584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>22</v>
       </c>
@@ -1605,7 +1604,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -1625,7 +1624,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -1645,7 +1644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -1665,7 +1664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -1685,7 +1684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -1705,7 +1704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -1725,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="15.75">
       <c r="A68" s="1" t="s">
         <v>54</v>
       </c>
@@ -1733,7 +1732,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>53</v>
       </c>
@@ -1741,7 +1740,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -1749,7 +1748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>44</v>
       </c>
@@ -1757,7 +1756,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -1765,12 +1764,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="15.75">
       <c r="A73" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>49</v>
       </c>
@@ -1793,7 +1792,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>43</v>
       </c>
@@ -1810,7 +1809,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>42</v>
       </c>
@@ -1827,12 +1826,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>41</v>
       </c>
       <c r="B77">
-        <v>0.17173002624511699</v>
+        <v>0.16574934387206999</v>
       </c>
       <c r="D77" t="s">
         <v>2</v>
@@ -1844,7 +1843,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>40</v>
       </c>
@@ -1861,7 +1860,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>39</v>
       </c>
@@ -1878,7 +1877,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>38</v>
       </c>
@@ -1895,7 +1894,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>37</v>
       </c>
@@ -1912,12 +1911,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>36</v>
       </c>
       <c r="B82">
-        <v>6.9938546419143698E-4</v>
+        <v>6.6054916381835902E-4</v>
       </c>
       <c r="D82" t="s">
         <v>2</v>
@@ -1929,12 +1928,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>35</v>
       </c>
       <c r="B83">
-        <v>1.15981660783291E-4</v>
+        <v>1.0894067585468299E-4</v>
       </c>
       <c r="D83" t="s">
         <v>2</v>
@@ -1946,12 +1945,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>34</v>
       </c>
       <c r="B84">
-        <v>8.6431135423481493E-7</v>
+        <v>8.3421083400025994E-7</v>
       </c>
       <c r="D84" t="s">
         <v>2</v>
@@ -1963,7 +1962,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>31</v>
       </c>
@@ -1983,7 +1982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>30</v>
       </c>
@@ -2003,7 +2002,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>28</v>
       </c>
@@ -2023,12 +2022,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>62</v>
       </c>
       <c r="B88">
-        <v>5.4019458770752003E-2</v>
+        <v>5.21381759643555E-2</v>
       </c>
       <c r="C88" t="s">
         <v>16</v>
@@ -2043,7 +2042,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>26</v>
       </c>
@@ -2063,7 +2062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>24</v>
       </c>
@@ -2083,7 +2082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>24</v>
       </c>
@@ -2103,7 +2102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>22</v>
       </c>
@@ -2123,7 +2122,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -2143,7 +2142,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -2163,7 +2162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -2183,7 +2182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -2203,7 +2202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -2223,7 +2222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -2243,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="15.75">
       <c r="A100" s="1" t="s">
         <v>54</v>
       </c>
@@ -2251,7 +2250,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>53</v>
       </c>
@@ -2259,7 +2258,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>47</v>
       </c>
@@ -2267,7 +2266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>44</v>
       </c>
@@ -2275,7 +2274,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -2283,12 +2282,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="15.75">
       <c r="A105" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>49</v>
       </c>
@@ -2311,7 +2310,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>43</v>
       </c>
@@ -2328,7 +2327,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>42</v>
       </c>
@@ -2345,12 +2344,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>41</v>
       </c>
       <c r="B109">
-        <v>9.8760406494140598E-2</v>
+        <v>9.5320976257324205E-2</v>
       </c>
       <c r="D109" t="s">
         <v>2</v>
@@ -2362,7 +2361,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>40</v>
       </c>
@@ -2379,7 +2378,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>39</v>
       </c>
@@ -2396,7 +2395,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>38</v>
       </c>
@@ -2413,7 +2412,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>37</v>
       </c>
@@ -2430,12 +2429,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>36</v>
       </c>
       <c r="B114">
-        <v>6.9938546419143698E-4</v>
+        <v>6.6054916381835902E-4</v>
       </c>
       <c r="D114" t="s">
         <v>2</v>
@@ -2447,12 +2446,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>35</v>
       </c>
       <c r="B115">
-        <v>1.15981660783291E-4</v>
+        <v>1.0894067585468299E-4</v>
       </c>
       <c r="D115" t="s">
         <v>2</v>
@@ -2464,12 +2463,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>34</v>
       </c>
       <c r="B116">
-        <v>4.9705780111253309E-7</v>
+        <v>4.7974722110666307E-7</v>
       </c>
       <c r="D116" t="s">
         <v>2</v>
@@ -2481,7 +2480,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>31</v>
       </c>
@@ -2501,7 +2500,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>30</v>
       </c>
@@ -2521,7 +2520,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>28</v>
       </c>
@@ -2541,12 +2540,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>62</v>
       </c>
       <c r="B120">
-        <v>3.10661106109619E-2</v>
+        <v>2.99842014312744E-2</v>
       </c>
       <c r="C120" t="s">
         <v>16</v>
@@ -2561,7 +2560,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>26</v>
       </c>
@@ -2581,7 +2580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>24</v>
       </c>
@@ -2601,7 +2600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>24</v>
       </c>
@@ -2621,7 +2620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>22</v>
       </c>
@@ -2641,7 +2640,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>20</v>
       </c>
@@ -2661,7 +2660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>14</v>
       </c>
@@ -2681,7 +2680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -2701,7 +2700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -2721,7 +2720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -2741,7 +2740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>4</v>
       </c>
@@ -2761,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="15.75">
       <c r="A132" s="1" t="s">
         <v>54</v>
       </c>
@@ -2769,7 +2768,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>53</v>
       </c>
@@ -2777,7 +2776,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>47</v>
       </c>
@@ -2785,7 +2784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>44</v>
       </c>
@@ -2793,7 +2792,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>19</v>
       </c>
@@ -2801,12 +2800,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="15.75">
       <c r="A137" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>49</v>
       </c>
@@ -2829,7 +2828,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>43</v>
       </c>
@@ -2846,7 +2845,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
         <v>42</v>
       </c>
@@ -2863,12 +2862,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>41</v>
       </c>
       <c r="B141">
-        <v>0.23547218322753899</v>
+        <v>0.22727162170410201</v>
       </c>
       <c r="D141" t="s">
         <v>2</v>
@@ -2880,7 +2879,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>40</v>
       </c>
@@ -2897,7 +2896,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
         <v>39</v>
       </c>
@@ -2914,7 +2913,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>38</v>
       </c>
@@ -2931,7 +2930,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>37</v>
       </c>
@@ -2948,12 +2947,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>36</v>
       </c>
       <c r="B146">
-        <v>6.9938546419143698E-4</v>
+        <v>6.6054916381835902E-4</v>
       </c>
       <c r="D146" t="s">
         <v>2</v>
@@ -2965,12 +2964,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>35</v>
       </c>
       <c r="B147">
-        <v>1.15981660783291E-4</v>
+        <v>1.0894067585468299E-4</v>
       </c>
       <c r="D147" t="s">
         <v>2</v>
@@ -2982,12 +2981,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>34</v>
       </c>
       <c r="B148">
-        <v>1.185123459436E-6</v>
+        <v>1.1438503861427299E-6</v>
       </c>
       <c r="D148" t="s">
         <v>2</v>
@@ -2999,7 +2998,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
         <v>31</v>
       </c>
@@ -3019,7 +3018,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>30</v>
       </c>
@@ -3039,7 +3038,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
         <v>28</v>
       </c>
@@ -3059,12 +3058,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
         <v>62</v>
       </c>
       <c r="B152">
-        <v>7.4070220947265591E-2</v>
+        <v>7.1490646362304705E-2</v>
       </c>
       <c r="C152" t="s">
         <v>16</v>
@@ -3079,7 +3078,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
         <v>26</v>
       </c>
@@ -3099,7 +3098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
         <v>24</v>
       </c>
@@ -3119,7 +3118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
         <v>24</v>
       </c>
@@ -3139,7 +3138,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
         <v>22</v>
       </c>
@@ -3159,7 +3158,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
         <v>20</v>
       </c>
@@ -3179,7 +3178,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
         <v>14</v>
       </c>
@@ -3199,7 +3198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -3219,7 +3218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
         <v>9</v>
       </c>
@@ -3239,7 +3238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -3259,7 +3258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -3279,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="15.75">
       <c r="A164" s="1" t="s">
         <v>54</v>
       </c>
@@ -3287,7 +3286,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" t="s">
         <v>53</v>
       </c>
@@ -3295,7 +3294,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" t="s">
         <v>47</v>
       </c>
@@ -3303,7 +3302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167" t="s">
         <v>44</v>
       </c>
@@ -3311,7 +3310,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" t="s">
         <v>19</v>
       </c>
@@ -3319,12 +3318,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="15.75">
       <c r="A169" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" t="s">
         <v>49</v>
       </c>
@@ -3347,7 +3346,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" t="s">
         <v>43</v>
       </c>
@@ -3364,7 +3363,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" t="s">
         <v>42</v>
       </c>
@@ -3381,12 +3380,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" t="s">
         <v>41</v>
       </c>
       <c r="B173">
-        <v>9.8760406494140598E-2</v>
+        <v>9.5320976257324205E-2</v>
       </c>
       <c r="D173" t="s">
         <v>2</v>
@@ -3398,7 +3397,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" t="s">
         <v>40</v>
       </c>
@@ -3415,7 +3414,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" t="s">
         <v>39</v>
       </c>
@@ -3432,7 +3431,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176" t="s">
         <v>38</v>
       </c>
@@ -3449,7 +3448,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" t="s">
         <v>37</v>
       </c>
@@ -3466,12 +3465,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178" t="s">
         <v>36</v>
       </c>
       <c r="B178">
-        <v>6.9938546419143698E-4</v>
+        <v>6.6054916381835902E-4</v>
       </c>
       <c r="D178" t="s">
         <v>2</v>
@@ -3483,12 +3482,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179" t="s">
         <v>35</v>
       </c>
       <c r="B179">
-        <v>1.15981660783291E-4</v>
+        <v>1.0894067585468299E-4</v>
       </c>
       <c r="D179" t="s">
         <v>2</v>
@@ -3500,12 +3499,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180" t="s">
         <v>34</v>
       </c>
       <c r="B180">
-        <v>4.9705780111253309E-7</v>
+        <v>4.7974722110666307E-7</v>
       </c>
       <c r="D180" t="s">
         <v>2</v>
@@ -3517,7 +3516,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181" t="s">
         <v>31</v>
       </c>
@@ -3537,7 +3536,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" t="s">
         <v>30</v>
       </c>
@@ -3557,7 +3556,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183" t="s">
         <v>28</v>
       </c>
@@ -3577,12 +3576,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184" t="s">
         <v>62</v>
       </c>
       <c r="B184">
-        <v>3.10661106109619E-2</v>
+        <v>2.99842014312744E-2</v>
       </c>
       <c r="C184" t="s">
         <v>16</v>
@@ -3597,7 +3596,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185" t="s">
         <v>26</v>
       </c>
@@ -3617,7 +3616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186" t="s">
         <v>24</v>
       </c>
@@ -3637,7 +3636,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187" t="s">
         <v>24</v>
       </c>
@@ -3657,7 +3656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188" t="s">
         <v>22</v>
       </c>
@@ -3677,7 +3676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="A189" t="s">
         <v>20</v>
       </c>
@@ -3697,7 +3696,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190" t="s">
         <v>14</v>
       </c>
@@ -3717,7 +3716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -3737,7 +3736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192" t="s">
         <v>9</v>
       </c>
@@ -3757,7 +3756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -3777,7 +3776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194" t="s">
         <v>4</v>
       </c>
@@ -3797,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="15.75">
       <c r="A196" s="1" t="s">
         <v>54</v>
       </c>
@@ -3805,7 +3804,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7">
       <c r="A197" t="s">
         <v>53</v>
       </c>
@@ -3813,7 +3812,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198" t="s">
         <v>47</v>
       </c>
@@ -3821,7 +3820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7">
       <c r="A199" t="s">
         <v>44</v>
       </c>
@@ -3829,7 +3828,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7">
       <c r="A200" t="s">
         <v>19</v>
       </c>
@@ -3837,12 +3836,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="15.75">
       <c r="A201" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7">
       <c r="A202" t="s">
         <v>49</v>
       </c>
@@ -3865,7 +3864,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7">
       <c r="A203" t="s">
         <v>43</v>
       </c>
@@ -3882,7 +3881,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7">
       <c r="A204" t="s">
         <v>42</v>
       </c>
@@ -3899,12 +3898,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7">
       <c r="A205" t="s">
         <v>41</v>
       </c>
       <c r="B205">
-        <v>0.17173002624511699</v>
+        <v>0.16574934387206999</v>
       </c>
       <c r="D205" t="s">
         <v>2</v>
@@ -3916,7 +3915,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7">
       <c r="A206" t="s">
         <v>40</v>
       </c>
@@ -3933,7 +3932,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7">
       <c r="A207" t="s">
         <v>39</v>
       </c>
@@ -3950,7 +3949,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7">
       <c r="A208" t="s">
         <v>38</v>
       </c>
@@ -3967,7 +3966,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7">
       <c r="A209" t="s">
         <v>37</v>
       </c>
@@ -3984,12 +3983,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7">
       <c r="A210" t="s">
         <v>36</v>
       </c>
       <c r="B210">
-        <v>6.9938546419143698E-4</v>
+        <v>6.6054916381835902E-4</v>
       </c>
       <c r="D210" t="s">
         <v>2</v>
@@ -4001,12 +4000,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7">
       <c r="A211" t="s">
         <v>35</v>
       </c>
       <c r="B211">
-        <v>1.15981660783291E-4</v>
+        <v>1.0894067585468299E-4</v>
       </c>
       <c r="D211" t="s">
         <v>2</v>
@@ -4018,12 +4017,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7">
       <c r="A212" t="s">
         <v>34</v>
       </c>
       <c r="B212">
-        <v>8.6431135423481493E-7</v>
+        <v>8.3421083400025994E-7</v>
       </c>
       <c r="D212" t="s">
         <v>2</v>
@@ -4035,7 +4034,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7">
       <c r="A213" t="s">
         <v>31</v>
       </c>
@@ -4055,7 +4054,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7">
       <c r="A214" t="s">
         <v>30</v>
       </c>
@@ -4075,7 +4074,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7">
       <c r="A215" t="s">
         <v>28</v>
       </c>
@@ -4095,12 +4094,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7">
       <c r="A216" t="s">
         <v>62</v>
       </c>
       <c r="B216">
-        <v>5.4019458770752003E-2</v>
+        <v>5.21381759643555E-2</v>
       </c>
       <c r="C216" t="s">
         <v>16</v>
@@ -4115,7 +4114,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7">
       <c r="A217" t="s">
         <v>26</v>
       </c>
@@ -4135,7 +4134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7">
       <c r="A218" t="s">
         <v>24</v>
       </c>
@@ -4155,7 +4154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7">
       <c r="A219" t="s">
         <v>24</v>
       </c>
@@ -4175,7 +4174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7">
       <c r="A220" t="s">
         <v>22</v>
       </c>
@@ -4195,7 +4194,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7">
       <c r="A221" t="s">
         <v>20</v>
       </c>
@@ -4215,7 +4214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7">
       <c r="A222" t="s">
         <v>14</v>
       </c>
@@ -4235,7 +4234,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7">
       <c r="A223" t="s">
         <v>11</v>
       </c>
@@ -4255,7 +4254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7">
       <c r="A224" t="s">
         <v>9</v>
       </c>
@@ -4275,7 +4274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -4295,7 +4294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7">
       <c r="A226" t="s">
         <v>4</v>
       </c>
@@ -4315,7 +4314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="15.75">
       <c r="A228" s="1" t="s">
         <v>54</v>
       </c>
@@ -4323,7 +4322,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7">
       <c r="A229" t="s">
         <v>53</v>
       </c>
@@ -4331,7 +4330,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7">
       <c r="A230" t="s">
         <v>47</v>
       </c>
@@ -4339,7 +4338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7">
       <c r="A231" t="s">
         <v>44</v>
       </c>
@@ -4347,7 +4346,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7">
       <c r="A232" t="s">
         <v>19</v>
       </c>
@@ -4355,12 +4354,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="15.75">
       <c r="A233" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7">
       <c r="A234" t="s">
         <v>49</v>
       </c>
@@ -4383,7 +4382,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7">
       <c r="A235" t="s">
         <v>43</v>
       </c>
@@ -4400,12 +4399,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7">
       <c r="A236" t="s">
         <v>42</v>
       </c>
       <c r="B236">
-        <v>3.0613461509346953E-5</v>
+        <v>5.1032744348049203E-5</v>
       </c>
       <c r="D236" t="s">
         <v>2</v>
@@ -4417,12 +4416,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7">
       <c r="A237" t="s">
         <v>41</v>
       </c>
       <c r="B237">
-        <v>0.30404727172851598</v>
+        <v>0.28921975708007802</v>
       </c>
       <c r="D237" t="s">
         <v>2</v>
@@ -4434,12 +4433,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7">
       <c r="A238" t="s">
         <v>40</v>
       </c>
       <c r="B238">
-        <v>8.2083039283752449E-3</v>
+        <v>1.1117636680602999E-2</v>
       </c>
       <c r="D238" t="s">
         <v>2</v>
@@ -4451,7 +4450,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7">
       <c r="A239" t="s">
         <v>39</v>
       </c>
@@ -4468,12 +4467,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7">
       <c r="A240" t="s">
         <v>38</v>
       </c>
       <c r="B240">
-        <v>2.3554193787276751E-5</v>
+        <v>3.9264921098947497E-5</v>
       </c>
       <c r="D240" t="s">
         <v>2</v>
@@ -4485,12 +4484,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7">
       <c r="A241" t="s">
         <v>37</v>
       </c>
       <c r="B241">
-        <v>6.7538329958915697E-4</v>
+        <v>1.12586629390717E-3</v>
       </c>
       <c r="D241" t="s">
         <v>2</v>
@@ -4502,12 +4501,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7">
       <c r="A242" t="s">
         <v>36</v>
       </c>
       <c r="B242">
-        <v>1.2964473366737399E-3</v>
+        <v>2.1565399169921899E-3</v>
       </c>
       <c r="D242" t="s">
         <v>2</v>
@@ -4519,7 +4518,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7">
       <c r="A243" t="s">
         <v>35</v>
       </c>
@@ -4536,12 +4535,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7">
       <c r="A244" t="s">
         <v>34</v>
       </c>
       <c r="B244">
-        <v>1.4595960965380099E-6</v>
+        <v>1.3884158106520799E-6</v>
       </c>
       <c r="D244" t="s">
         <v>2</v>
@@ -4553,7 +4552,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7">
       <c r="A245" t="s">
         <v>31</v>
       </c>
@@ -4573,7 +4572,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7">
       <c r="A246" t="s">
         <v>30</v>
       </c>
@@ -4593,7 +4592,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7">
       <c r="A247" t="s">
         <v>28</v>
       </c>
@@ -4613,7 +4612,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7">
       <c r="A248" t="s">
         <v>26</v>
       </c>
@@ -4633,7 +4632,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7">
       <c r="A249" t="s">
         <v>24</v>
       </c>
@@ -4653,7 +4652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7">
       <c r="A250" t="s">
         <v>24</v>
       </c>
@@ -4673,7 +4672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7">
       <c r="A251" t="s">
         <v>22</v>
       </c>
@@ -4693,7 +4692,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7">
       <c r="A252" t="s">
         <v>20</v>
       </c>
@@ -4713,12 +4712,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7">
       <c r="A253" t="s">
         <v>17</v>
       </c>
       <c r="B253">
-        <v>9.6981803894042998E-2</v>
+        <v>9.2252273559570303E-2</v>
       </c>
       <c r="C253" t="s">
         <v>16</v>
@@ -4733,7 +4732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7">
       <c r="A254" t="s">
         <v>14</v>
       </c>
@@ -4753,7 +4752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7">
       <c r="A255" t="s">
         <v>11</v>
       </c>
@@ -4773,7 +4772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7">
       <c r="A256" t="s">
         <v>9</v>
       </c>
@@ -4793,7 +4792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -4813,7 +4812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7">
       <c r="A258" t="s">
         <v>4</v>
       </c>
@@ -4833,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" ht="15.75">
       <c r="A260" s="1" t="s">
         <v>54</v>
       </c>
@@ -4841,7 +4840,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7">
       <c r="A261" t="s">
         <v>53</v>
       </c>
@@ -4849,7 +4848,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7">
       <c r="A262" t="s">
         <v>47</v>
       </c>
@@ -4857,7 +4856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7">
       <c r="A263" t="s">
         <v>44</v>
       </c>
@@ -4865,7 +4864,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7">
       <c r="A264" t="s">
         <v>19</v>
       </c>
@@ -4873,12 +4872,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" ht="15.75">
       <c r="A265" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7">
       <c r="A266" t="s">
         <v>49</v>
       </c>
@@ -4901,7 +4900,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7">
       <c r="A267" t="s">
         <v>43</v>
       </c>
@@ -4918,12 +4917,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7">
       <c r="A268" t="s">
         <v>42</v>
       </c>
       <c r="B268">
-        <v>3.0613461509346953E-5</v>
+        <v>5.1032744348049203E-5</v>
       </c>
       <c r="D268" t="s">
         <v>2</v>
@@ -4935,12 +4934,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7">
       <c r="A269" t="s">
         <v>41</v>
       </c>
       <c r="B269">
-        <v>0.180473541259766</v>
+        <v>0.168952484130859</v>
       </c>
       <c r="D269" t="s">
         <v>2</v>
@@ -4952,12 +4951,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7">
       <c r="A270" t="s">
         <v>40</v>
       </c>
       <c r="B270">
-        <v>8.2083039283752449E-3</v>
+        <v>1.1117636680602999E-2</v>
       </c>
       <c r="D270" t="s">
         <v>2</v>
@@ -4969,7 +4968,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7">
       <c r="A271" t="s">
         <v>39</v>
       </c>
@@ -4986,12 +4985,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7">
       <c r="A272" t="s">
         <v>38</v>
       </c>
       <c r="B272">
-        <v>2.3554193787276751E-5</v>
+        <v>3.9264921098947497E-5</v>
       </c>
       <c r="D272" t="s">
         <v>2</v>
@@ -5003,12 +5002,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7">
       <c r="A273" t="s">
         <v>37</v>
       </c>
       <c r="B273">
-        <v>6.7538329958915697E-4</v>
+        <v>1.12586629390717E-3</v>
       </c>
       <c r="D273" t="s">
         <v>2</v>
@@ -5020,12 +5019,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7">
       <c r="A274" t="s">
         <v>36</v>
       </c>
       <c r="B274">
-        <v>1.2964473366737399E-3</v>
+        <v>2.1565399169921899E-3</v>
       </c>
       <c r="D274" t="s">
         <v>2</v>
@@ -5037,7 +5036,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7">
       <c r="A275" t="s">
         <v>35</v>
       </c>
@@ -5054,12 +5053,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7">
       <c r="A276" t="s">
         <v>34</v>
       </c>
       <c r="B276">
-        <v>8.6637347703799611E-7</v>
+        <v>8.1106601282954204E-7</v>
       </c>
       <c r="D276" t="s">
         <v>2</v>
@@ -5071,7 +5070,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7">
       <c r="A277" t="s">
         <v>31</v>
       </c>
@@ -5091,7 +5090,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7">
       <c r="A278" t="s">
         <v>30</v>
       </c>
@@ -5111,7 +5110,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7">
       <c r="A279" t="s">
         <v>28</v>
       </c>
@@ -5131,7 +5130,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7">
       <c r="A280" t="s">
         <v>26</v>
       </c>
@@ -5151,7 +5150,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7">
       <c r="A281" t="s">
         <v>24</v>
       </c>
@@ -5171,7 +5170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7">
       <c r="A282" t="s">
         <v>24</v>
       </c>
@@ -5191,7 +5190,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7">
       <c r="A283" t="s">
         <v>22</v>
       </c>
@@ -5211,7 +5210,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7">
       <c r="A284" t="s">
         <v>20</v>
       </c>
@@ -5231,12 +5230,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7">
       <c r="A285" t="s">
         <v>17</v>
       </c>
       <c r="B285">
-        <v>5.7565555572509801E-2</v>
+        <v>5.3890689849853499E-2</v>
       </c>
       <c r="C285" t="s">
         <v>16</v>
@@ -5251,7 +5250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7">
       <c r="A286" t="s">
         <v>14</v>
       </c>
@@ -5271,7 +5270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7">
       <c r="A287" t="s">
         <v>11</v>
       </c>
@@ -5291,7 +5290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7">
       <c r="A288" t="s">
         <v>9</v>
       </c>
@@ -5311,7 +5310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7">
       <c r="A289" t="s">
         <v>7</v>
       </c>
@@ -5331,7 +5330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7">
       <c r="A290" t="s">
         <v>4</v>
       </c>
@@ -5351,7 +5350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" ht="15.75">
       <c r="A292" s="1" t="s">
         <v>54</v>
       </c>
@@ -5359,7 +5358,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7">
       <c r="A293" t="s">
         <v>53</v>
       </c>
@@ -5367,7 +5366,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7">
       <c r="A294" t="s">
         <v>47</v>
       </c>
@@ -5375,7 +5374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7">
       <c r="A295" t="s">
         <v>44</v>
       </c>
@@ -5383,7 +5382,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7">
       <c r="A296" t="s">
         <v>19</v>
       </c>
@@ -5391,12 +5390,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" ht="15.75">
       <c r="A297" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7">
       <c r="A298" t="s">
         <v>49</v>
       </c>
@@ -5419,7 +5418,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7">
       <c r="A299" t="s">
         <v>43</v>
       </c>
@@ -5436,12 +5435,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7">
       <c r="A300" t="s">
         <v>42</v>
       </c>
       <c r="B300">
-        <v>3.0613461509346953E-5</v>
+        <v>5.1032744348049203E-5</v>
       </c>
       <c r="D300" t="s">
         <v>2</v>
@@ -5453,12 +5452,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7">
       <c r="A301" t="s">
         <v>41</v>
       </c>
       <c r="B301">
-        <v>0.24461047363281299</v>
+        <v>0.22530091857910201</v>
       </c>
       <c r="D301" t="s">
         <v>2</v>
@@ -5470,12 +5469,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7">
       <c r="A302" t="s">
         <v>40</v>
       </c>
       <c r="B302">
-        <v>8.2083039283752449E-3</v>
+        <v>1.1117636680602999E-2</v>
       </c>
       <c r="D302" t="s">
         <v>2</v>
@@ -5487,7 +5486,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7">
       <c r="A303" t="s">
         <v>39</v>
       </c>
@@ -5504,12 +5503,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7">
       <c r="A304" t="s">
         <v>38</v>
       </c>
       <c r="B304">
-        <v>2.3554193787276751E-5</v>
+        <v>3.9264921098947497E-5</v>
       </c>
       <c r="D304" t="s">
         <v>2</v>
@@ -5521,12 +5520,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7">
       <c r="A305" t="s">
         <v>37</v>
       </c>
       <c r="B305">
-        <v>6.7538329958915697E-4</v>
+        <v>1.12586629390717E-3</v>
       </c>
       <c r="D305" t="s">
         <v>2</v>
@@ -5538,12 +5537,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7">
       <c r="A306" t="s">
         <v>36</v>
       </c>
       <c r="B306">
-        <v>1.2964473366737399E-3</v>
+        <v>2.1565399169921899E-3</v>
       </c>
       <c r="D306" t="s">
         <v>2</v>
@@ -5555,7 +5554,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7">
       <c r="A307" t="s">
         <v>35</v>
       </c>
@@ -5572,12 +5571,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7">
       <c r="A308" t="s">
         <v>34</v>
       </c>
       <c r="B308">
-        <v>1.1742664501071001E-6</v>
+        <v>1.0815698187798299E-6</v>
       </c>
       <c r="D308" t="s">
         <v>2</v>
@@ -5589,7 +5588,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7">
       <c r="A309" t="s">
         <v>31</v>
       </c>
@@ -5609,7 +5608,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7">
       <c r="A310" t="s">
         <v>30</v>
       </c>
@@ -5629,7 +5628,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7">
       <c r="A311" t="s">
         <v>28</v>
       </c>
@@ -5649,7 +5648,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7">
       <c r="A312" t="s">
         <v>26</v>
       </c>
@@ -5669,7 +5668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7">
       <c r="A313" t="s">
         <v>24</v>
       </c>
@@ -5689,7 +5688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7">
       <c r="A314" t="s">
         <v>24</v>
       </c>
@@ -5709,7 +5708,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7">
       <c r="A315" t="s">
         <v>22</v>
       </c>
@@ -5729,7 +5728,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7">
       <c r="A316" t="s">
         <v>20</v>
       </c>
@@ -5749,12 +5748,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7">
       <c r="A317" t="s">
         <v>17</v>
       </c>
       <c r="B317">
-        <v>7.8023277282714798E-2</v>
+        <v>7.1864120483398394E-2</v>
       </c>
       <c r="C317" t="s">
         <v>16</v>
@@ -5769,7 +5768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7">
       <c r="A318" t="s">
         <v>14</v>
       </c>
@@ -5789,7 +5788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7">
       <c r="A319" t="s">
         <v>11</v>
       </c>
@@ -5809,7 +5808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7">
       <c r="A320" t="s">
         <v>9</v>
       </c>
@@ -5829,7 +5828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -5849,7 +5848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7">
       <c r="A322" t="s">
         <v>4</v>
       </c>
@@ -5869,7 +5868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" ht="15.75">
       <c r="A324" s="1" t="s">
         <v>54</v>
       </c>
@@ -5877,7 +5876,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7">
       <c r="A325" t="s">
         <v>53</v>
       </c>
@@ -5885,7 +5884,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7">
       <c r="A326" t="s">
         <v>47</v>
       </c>
@@ -5893,7 +5892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7">
       <c r="A327" t="s">
         <v>44</v>
       </c>
@@ -5901,7 +5900,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7">
       <c r="A328" t="s">
         <v>19</v>
       </c>
@@ -5909,12 +5908,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" ht="15.75">
       <c r="A329" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7">
       <c r="A330" t="s">
         <v>49</v>
       </c>
@@ -5937,7 +5936,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7">
       <c r="A331" t="s">
         <v>43</v>
       </c>
@@ -5954,12 +5953,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7">
       <c r="A332" t="s">
         <v>42</v>
       </c>
       <c r="B332">
-        <v>3.0613461509346953E-5</v>
+        <v>5.1032744348049203E-5</v>
       </c>
       <c r="D332" t="s">
         <v>2</v>
@@ -5971,12 +5970,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7">
       <c r="A333" t="s">
         <v>41</v>
       </c>
       <c r="B333">
-        <v>0.180473541259766</v>
+        <v>0.168952484130859</v>
       </c>
       <c r="D333" t="s">
         <v>2</v>
@@ -5988,12 +5987,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7">
       <c r="A334" t="s">
         <v>40</v>
       </c>
       <c r="B334">
-        <v>8.2083039283752449E-3</v>
+        <v>1.1117636680602999E-2</v>
       </c>
       <c r="D334" t="s">
         <v>2</v>
@@ -6005,7 +6004,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7">
       <c r="A335" t="s">
         <v>39</v>
       </c>
@@ -6022,12 +6021,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7">
       <c r="A336" t="s">
         <v>38</v>
       </c>
       <c r="B336">
-        <v>2.3554193787276751E-5</v>
+        <v>3.9264921098947497E-5</v>
       </c>
       <c r="D336" t="s">
         <v>2</v>
@@ -6039,12 +6038,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7">
       <c r="A337" t="s">
         <v>37</v>
       </c>
       <c r="B337">
-        <v>6.7538329958915697E-4</v>
+        <v>1.12586629390717E-3</v>
       </c>
       <c r="D337" t="s">
         <v>2</v>
@@ -6056,12 +6055,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7">
       <c r="A338" t="s">
         <v>36</v>
       </c>
       <c r="B338">
-        <v>1.2964473366737399E-3</v>
+        <v>2.1565399169921899E-3</v>
       </c>
       <c r="D338" t="s">
         <v>2</v>
@@ -6073,7 +6072,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7">
       <c r="A339" t="s">
         <v>35</v>
       </c>
@@ -6090,12 +6089,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7">
       <c r="A340" t="s">
         <v>34</v>
       </c>
       <c r="B340">
-        <v>8.6637347703799611E-7</v>
+        <v>8.1106601282954204E-7</v>
       </c>
       <c r="D340" t="s">
         <v>2</v>
@@ -6107,7 +6106,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7">
       <c r="A341" t="s">
         <v>31</v>
       </c>
@@ -6127,7 +6126,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7">
       <c r="A342" t="s">
         <v>30</v>
       </c>
@@ -6147,7 +6146,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7">
       <c r="A343" t="s">
         <v>28</v>
       </c>
@@ -6167,7 +6166,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7">
       <c r="A344" t="s">
         <v>26</v>
       </c>
@@ -6187,7 +6186,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7">
       <c r="A345" t="s">
         <v>24</v>
       </c>
@@ -6207,7 +6206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7">
       <c r="A346" t="s">
         <v>24</v>
       </c>
@@ -6227,7 +6226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7">
       <c r="A347" t="s">
         <v>22</v>
       </c>
@@ -6247,7 +6246,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7">
       <c r="A348" t="s">
         <v>20</v>
       </c>
@@ -6267,12 +6266,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7">
       <c r="A349" t="s">
         <v>17</v>
       </c>
       <c r="B349">
-        <v>5.7565555572509801E-2</v>
+        <v>5.3890689849853499E-2</v>
       </c>
       <c r="C349" t="s">
         <v>16</v>
@@ -6287,7 +6286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7">
       <c r="A350" t="s">
         <v>14</v>
       </c>
@@ -6307,7 +6306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7">
       <c r="A351" t="s">
         <v>11</v>
       </c>
@@ -6327,7 +6326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7">
       <c r="A352" t="s">
         <v>9</v>
       </c>
@@ -6347,7 +6346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7">
       <c r="A353" t="s">
         <v>7</v>
       </c>
@@ -6367,7 +6366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7">
       <c r="A354" t="s">
         <v>4</v>
       </c>
@@ -6387,7 +6386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" ht="15.75">
       <c r="A356" s="1" t="s">
         <v>54</v>
       </c>
@@ -6395,7 +6394,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7">
       <c r="A357" t="s">
         <v>53</v>
       </c>
@@ -6403,7 +6402,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7">
       <c r="A358" t="s">
         <v>47</v>
       </c>
@@ -6411,7 +6410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7">
       <c r="A359" t="s">
         <v>44</v>
       </c>
@@ -6419,7 +6418,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7">
       <c r="A360" t="s">
         <v>19</v>
       </c>
@@ -6427,12 +6426,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" ht="15.75">
       <c r="A361" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7">
       <c r="A362" t="s">
         <v>49</v>
       </c>
@@ -6455,7 +6454,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7">
       <c r="A363" t="s">
         <v>43</v>
       </c>
@@ -6472,12 +6471,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7">
       <c r="A364" t="s">
         <v>42</v>
       </c>
       <c r="B364">
-        <v>3.0613461509346953E-5</v>
+        <v>5.1032744348049203E-5</v>
       </c>
       <c r="D364" t="s">
         <v>2</v>
@@ -6489,12 +6488,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7">
       <c r="A365" t="s">
         <v>41</v>
       </c>
       <c r="B365">
-        <v>0.30404727172851598</v>
+        <v>0.28921975708007802</v>
       </c>
       <c r="D365" t="s">
         <v>2</v>
@@ -6506,12 +6505,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7">
       <c r="A366" t="s">
         <v>40</v>
       </c>
       <c r="B366">
-        <v>8.2083039283752449E-3</v>
+        <v>1.1117636680602999E-2</v>
       </c>
       <c r="D366" t="s">
         <v>2</v>
@@ -6523,7 +6522,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7">
       <c r="A367" t="s">
         <v>39</v>
       </c>
@@ -6540,12 +6539,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7">
       <c r="A368" t="s">
         <v>38</v>
       </c>
       <c r="B368">
-        <v>2.3554193787276751E-5</v>
+        <v>3.9264921098947497E-5</v>
       </c>
       <c r="D368" t="s">
         <v>2</v>
@@ -6557,12 +6556,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7">
       <c r="A369" t="s">
         <v>37</v>
       </c>
       <c r="B369">
-        <v>6.7538329958915697E-4</v>
+        <v>1.12586629390717E-3</v>
       </c>
       <c r="D369" t="s">
         <v>2</v>
@@ -6574,12 +6573,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7">
       <c r="A370" t="s">
         <v>36</v>
       </c>
       <c r="B370">
-        <v>1.2964473366737399E-3</v>
+        <v>2.1565399169921899E-3</v>
       </c>
       <c r="D370" t="s">
         <v>2</v>
@@ -6591,7 +6590,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7">
       <c r="A371" t="s">
         <v>35</v>
       </c>
@@ -6608,12 +6607,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7">
       <c r="A372" t="s">
         <v>34</v>
       </c>
       <c r="B372">
-        <v>1.4595960965380099E-6</v>
+        <v>1.3884158106520799E-6</v>
       </c>
       <c r="D372" t="s">
         <v>2</v>
@@ -6625,7 +6624,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7">
       <c r="A373" t="s">
         <v>31</v>
       </c>
@@ -6645,7 +6644,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7">
       <c r="A374" t="s">
         <v>30</v>
       </c>
@@ -6665,7 +6664,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7">
       <c r="A375" t="s">
         <v>28</v>
       </c>
@@ -6685,7 +6684,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7">
       <c r="A376" t="s">
         <v>26</v>
       </c>
@@ -6705,7 +6704,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7">
       <c r="A377" t="s">
         <v>24</v>
       </c>
@@ -6725,7 +6724,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7">
       <c r="A378" t="s">
         <v>24</v>
       </c>
@@ -6745,7 +6744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7">
       <c r="A379" t="s">
         <v>22</v>
       </c>
@@ -6765,7 +6764,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7">
       <c r="A380" t="s">
         <v>20</v>
       </c>
@@ -6785,12 +6784,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7">
       <c r="A381" t="s">
         <v>17</v>
       </c>
       <c r="B381">
-        <v>9.6981803894042998E-2</v>
+        <v>9.2252273559570303E-2</v>
       </c>
       <c r="C381" t="s">
         <v>16</v>
@@ -6805,7 +6804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7">
       <c r="A382" t="s">
         <v>14</v>
       </c>
@@ -6825,7 +6824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7">
       <c r="A383" t="s">
         <v>11</v>
       </c>
@@ -6845,7 +6844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7">
       <c r="A384" t="s">
         <v>9</v>
       </c>
@@ -6865,7 +6864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7">
       <c r="A385" t="s">
         <v>7</v>
       </c>
@@ -6885,7 +6884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7">
       <c r="A386" t="s">
         <v>4</v>
       </c>
@@ -6905,7 +6904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" ht="15.75">
       <c r="A388" s="1" t="s">
         <v>54</v>
       </c>
@@ -6913,7 +6912,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7">
       <c r="A389" t="s">
         <v>53</v>
       </c>
@@ -6921,7 +6920,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7">
       <c r="A390" t="s">
         <v>47</v>
       </c>
@@ -6929,7 +6928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7">
       <c r="A391" t="s">
         <v>44</v>
       </c>
@@ -6937,7 +6936,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7">
       <c r="A392" t="s">
         <v>19</v>
       </c>
@@ -6945,12 +6944,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="393" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" ht="15.75">
       <c r="A393" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7">
       <c r="A394" t="s">
         <v>49</v>
       </c>
@@ -6973,7 +6972,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7">
       <c r="A395" t="s">
         <v>43</v>
       </c>
@@ -6990,12 +6989,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7">
       <c r="A396" t="s">
         <v>42</v>
       </c>
       <c r="B396">
-        <v>3.0613461509346953E-5</v>
+        <v>5.1032744348049203E-5</v>
       </c>
       <c r="D396" t="s">
         <v>2</v>
@@ -7007,12 +7006,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7">
       <c r="A397" t="s">
         <v>41</v>
       </c>
       <c r="B397">
-        <v>0.180473541259766</v>
+        <v>0.168952484130859</v>
       </c>
       <c r="D397" t="s">
         <v>2</v>
@@ -7024,12 +7023,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7">
       <c r="A398" t="s">
         <v>40</v>
       </c>
       <c r="B398">
-        <v>8.2083039283752449E-3</v>
+        <v>1.1117636680602999E-2</v>
       </c>
       <c r="D398" t="s">
         <v>2</v>
@@ -7041,7 +7040,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7">
       <c r="A399" t="s">
         <v>39</v>
       </c>
@@ -7058,12 +7057,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7">
       <c r="A400" t="s">
         <v>38</v>
       </c>
       <c r="B400">
-        <v>2.3554193787276751E-5</v>
+        <v>3.9264921098947497E-5</v>
       </c>
       <c r="D400" t="s">
         <v>2</v>
@@ -7075,12 +7074,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7">
       <c r="A401" t="s">
         <v>37</v>
       </c>
       <c r="B401">
-        <v>6.7538329958915697E-4</v>
+        <v>1.12586629390717E-3</v>
       </c>
       <c r="D401" t="s">
         <v>2</v>
@@ -7092,12 +7091,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7">
       <c r="A402" t="s">
         <v>36</v>
       </c>
       <c r="B402">
-        <v>1.2964473366737399E-3</v>
+        <v>2.1565399169921899E-3</v>
       </c>
       <c r="D402" t="s">
         <v>2</v>
@@ -7109,7 +7108,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7">
       <c r="A403" t="s">
         <v>35</v>
       </c>
@@ -7126,12 +7125,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7">
       <c r="A404" t="s">
         <v>34</v>
       </c>
       <c r="B404">
-        <v>8.6637347703799611E-7</v>
+        <v>8.1106601282954204E-7</v>
       </c>
       <c r="D404" t="s">
         <v>2</v>
@@ -7143,7 +7142,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7">
       <c r="A405" t="s">
         <v>31</v>
       </c>
@@ -7163,7 +7162,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7">
       <c r="A406" t="s">
         <v>30</v>
       </c>
@@ -7183,7 +7182,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7">
       <c r="A407" t="s">
         <v>28</v>
       </c>
@@ -7203,7 +7202,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7">
       <c r="A408" t="s">
         <v>26</v>
       </c>
@@ -7223,7 +7222,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7">
       <c r="A409" t="s">
         <v>24</v>
       </c>
@@ -7243,7 +7242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7">
       <c r="A410" t="s">
         <v>24</v>
       </c>
@@ -7263,7 +7262,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7">
       <c r="A411" t="s">
         <v>22</v>
       </c>
@@ -7283,7 +7282,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7">
       <c r="A412" t="s">
         <v>20</v>
       </c>
@@ -7303,12 +7302,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7">
       <c r="A413" t="s">
         <v>17</v>
       </c>
       <c r="B413">
-        <v>5.7565555572509801E-2</v>
+        <v>5.3890689849853499E-2</v>
       </c>
       <c r="C413" t="s">
         <v>16</v>
@@ -7323,7 +7322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7">
       <c r="A414" t="s">
         <v>14</v>
       </c>
@@ -7343,7 +7342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7">
       <c r="A415" t="s">
         <v>11</v>
       </c>
@@ -7363,7 +7362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7">
       <c r="A416" t="s">
         <v>9</v>
       </c>
@@ -7383,7 +7382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7">
       <c r="A417" t="s">
         <v>7</v>
       </c>
@@ -7403,7 +7402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7">
       <c r="A418" t="s">
         <v>4</v>
       </c>
@@ -7423,7 +7422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" ht="15.75">
       <c r="A420" s="1" t="s">
         <v>54</v>
       </c>
@@ -7431,7 +7430,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7">
       <c r="A421" t="s">
         <v>53</v>
       </c>
@@ -7439,7 +7438,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7">
       <c r="A422" t="s">
         <v>47</v>
       </c>
@@ -7447,7 +7446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7">
       <c r="A423" t="s">
         <v>44</v>
       </c>
@@ -7455,7 +7454,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7">
       <c r="A424" t="s">
         <v>19</v>
       </c>
@@ -7463,12 +7462,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="425" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" ht="15.75">
       <c r="A425" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7">
       <c r="A426" t="s">
         <v>49</v>
       </c>
@@ -7491,7 +7490,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7">
       <c r="A427" t="s">
         <v>43</v>
       </c>
@@ -7508,12 +7507,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7">
       <c r="A428" t="s">
         <v>42</v>
       </c>
       <c r="B428">
-        <v>3.0613461509346953E-5</v>
+        <v>5.1032744348049203E-5</v>
       </c>
       <c r="D428" t="s">
         <v>2</v>
@@ -7525,12 +7524,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7">
       <c r="A429" t="s">
         <v>41</v>
       </c>
       <c r="B429">
-        <v>0.24461047363281299</v>
+        <v>0.22530091857910201</v>
       </c>
       <c r="D429" t="s">
         <v>2</v>
@@ -7542,12 +7541,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7">
       <c r="A430" t="s">
         <v>40</v>
       </c>
       <c r="B430">
-        <v>8.2083039283752449E-3</v>
+        <v>1.1117636680602999E-2</v>
       </c>
       <c r="D430" t="s">
         <v>2</v>
@@ -7559,7 +7558,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7">
       <c r="A431" t="s">
         <v>39</v>
       </c>
@@ -7576,12 +7575,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7">
       <c r="A432" t="s">
         <v>38</v>
       </c>
       <c r="B432">
-        <v>2.3554193787276751E-5</v>
+        <v>3.9264921098947497E-5</v>
       </c>
       <c r="D432" t="s">
         <v>2</v>
@@ -7593,12 +7592,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7">
       <c r="A433" t="s">
         <v>37</v>
       </c>
       <c r="B433">
-        <v>6.7538329958915697E-4</v>
+        <v>1.12586629390717E-3</v>
       </c>
       <c r="D433" t="s">
         <v>2</v>
@@ -7610,12 +7609,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7">
       <c r="A434" t="s">
         <v>36</v>
       </c>
       <c r="B434">
-        <v>1.2964473366737399E-3</v>
+        <v>2.1565399169921899E-3</v>
       </c>
       <c r="D434" t="s">
         <v>2</v>
@@ -7627,7 +7626,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7">
       <c r="A435" t="s">
         <v>35</v>
       </c>
@@ -7644,12 +7643,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7">
       <c r="A436" t="s">
         <v>34</v>
       </c>
       <c r="B436">
-        <v>1.1742664501071001E-6</v>
+        <v>1.0815698187798299E-6</v>
       </c>
       <c r="D436" t="s">
         <v>2</v>
@@ -7661,7 +7660,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7">
       <c r="A437" t="s">
         <v>31</v>
       </c>
@@ -7681,7 +7680,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7">
       <c r="A438" t="s">
         <v>30</v>
       </c>
@@ -7701,7 +7700,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7">
       <c r="A439" t="s">
         <v>28</v>
       </c>
@@ -7721,7 +7720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7">
       <c r="A440" t="s">
         <v>26</v>
       </c>
@@ -7741,7 +7740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7">
       <c r="A441" t="s">
         <v>24</v>
       </c>
@@ -7761,7 +7760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7">
       <c r="A442" t="s">
         <v>24</v>
       </c>
@@ -7781,7 +7780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7">
       <c r="A443" t="s">
         <v>22</v>
       </c>
@@ -7801,7 +7800,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7">
       <c r="A444" t="s">
         <v>20</v>
       </c>
@@ -7821,12 +7820,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7">
       <c r="A445" t="s">
         <v>17</v>
       </c>
       <c r="B445">
-        <v>7.8023277282714798E-2</v>
+        <v>7.1864120483398394E-2</v>
       </c>
       <c r="C445" t="s">
         <v>16</v>
@@ -7841,7 +7840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7">
       <c r="A446" t="s">
         <v>14</v>
       </c>
@@ -7861,7 +7860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7">
       <c r="A447" t="s">
         <v>11</v>
       </c>
@@ -7881,7 +7880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7">
       <c r="A448" t="s">
         <v>9</v>
       </c>
@@ -7901,7 +7900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8">
       <c r="A449" t="s">
         <v>7</v>
       </c>
@@ -7921,7 +7920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8">
       <c r="A450" t="s">
         <v>4</v>
       </c>
@@ -7941,78 +7940,78 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8">
       <c r="B459" s="4"/>
       <c r="D459" s="5"/>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8">
       <c r="A460" s="6"/>
       <c r="B460" s="4"/>
       <c r="H460" s="6"/>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8">
       <c r="A461" s="6"/>
       <c r="B461" s="4"/>
       <c r="H461" s="6"/>
     </row>
-    <row r="487" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:1" ht="15.75">
       <c r="A487" s="1"/>
     </row>
-    <row r="492" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:1" ht="15.75">
       <c r="A492" s="1"/>
     </row>
-    <row r="519" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:1" ht="15.75">
       <c r="A519" s="1"/>
     </row>
-    <row r="524" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:1" ht="15.75">
       <c r="A524" s="1"/>
     </row>
-    <row r="551" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:1" ht="15.75">
       <c r="A551" s="1"/>
     </row>
-    <row r="556" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:1" ht="15.75">
       <c r="A556" s="1"/>
     </row>
-    <row r="583" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:1" ht="15.75">
       <c r="A583" s="1"/>
     </row>
-    <row r="588" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:1" ht="15.75">
       <c r="A588" s="1"/>
     </row>
-    <row r="615" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:1" ht="15.75">
       <c r="A615" s="1"/>
     </row>
-    <row r="620" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:1" ht="15.75">
       <c r="A620" s="1"/>
     </row>
-    <row r="653" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:1" ht="15.75">
       <c r="A653" s="1"/>
     </row>
-    <row r="658" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:1" ht="15.75">
       <c r="A658" s="1"/>
     </row>
-    <row r="691" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:1" ht="15.75">
       <c r="A691" s="1"/>
     </row>
-    <row r="696" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:1" ht="15.75">
       <c r="A696" s="1"/>
     </row>
-    <row r="729" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:1" ht="15.75">
       <c r="A729" s="1"/>
     </row>
-    <row r="734" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:1" ht="15.75">
       <c r="A734" s="1"/>
     </row>
-    <row r="767" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:1" ht="15.75">
       <c r="A767" s="1"/>
     </row>
-    <row r="772" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:1" ht="15.75">
       <c r="A772" s="1"/>
     </row>
-    <row r="805" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:1" ht="15.75">
       <c r="A805" s="1"/>
     </row>
-    <row r="810" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:1" ht="15.75">
       <c r="A810" s="1"/>
     </row>
   </sheetData>
